--- a/Data Collection/Authors/Zora del Buono/Buono_all_2021.xlsx
+++ b/Data Collection/Authors/Zora del Buono/Buono_all_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0c6ad9d82f21af58/Dokumente/COINS_SwissTribeleaders/Data Collection/Authors/Zora del Buono/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{B2093E71-3EFE-4525-BB30-23F6B1274704}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3AA372DF-CA32-47ED-BD21-218383E5963B}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="8_{B2093E71-3EFE-4525-BB30-23F6B1274704}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{41115360-1789-4E37-B378-F24A1439D980}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
   <si>
     <t>title</t>
   </si>
@@ -116,25 +116,6 @@
 Regionale, nationale und internationale Autorinnen und Autoren treffen hier aufeinander und schauen von Westfalen aus auf ganz Europa.“</t>
   </si>
   <si>
-    <t>6 Balkan-Autorinnen erzählen - «Ich werde meinem Land nie entkommen können»</t>
-  </si>
-  <si>
-    <t>Tages-Anzeiger</t>
-  </si>
-  <si>
-    <t>Warten ist die Hölle – in Damaskus und in Zürich. Aktualisiert · Die Romancière Zora del Buono in ihrer Heimatstadt Zürich. In ihrer Wahlheimat Berlin sei jetzt ...</t>
-  </si>
-  <si>
-    <t>https://www.tagesanzeiger.ch/ich-werde-meinem-land-nie-entkommen-koennen-643662405848</t>
-  </si>
-  <si>
-    <t>6 Balkan-Autorinnen erzählen – «Ich werde meinem Land nie entkommen können» Wie schlagen sie Brücken nach dem Krieg?
-Es sind kleine Dinge, die für mich ausmachen, dass ich mich zu Hause fühle – Leute, die wissen, wie man meinen Namen ausspricht.
-In diesen Momenten fühle ich mich, als ob ich eher nach Deutschland gehöre und nicht nach Bosnien.
-Als ich zum ersten Mal in New York war und auf die Strasse trat, fühlte ich mich, als ob ich mein ganzes Leben ein New Yorker gewesen wäre.
-Heute schlägt die Kultur Brücken über die Gräben, die der Krieg hinterlassen hat.</t>
-  </si>
-  <si>
     <t>Claudia Durastanti und ihr Roman "Die Fremde" - "Meine ...</t>
   </si>
   <si>
@@ -205,25 +186,6 @@
 Der Heiko ist inzwischen Grundschullehrer, aber er hat immer noch eine Künstlerhomepage und selbst auf dieser Homepage ist das Erfurter Stück – es hat den fantastischen Titel „Eher fort (Kanada“) – nur ganz versteckt gelistet.</t>
   </si>
   <si>
-    <t>Frauen in der Architektur - Kunsthistorikerin: "Die Vorbilder ...</t>
-  </si>
-  <si>
-    <t>Dlf</t>
-  </si>
-  <si>
-    <t>Architektin und Autorin Zora del Buono „Raus ins Leben. Gucken, was ist. Immer weiter!“ Architektin Margarete Schütte-Lihotzky · Frauen in der Architektur „Zaha ...</t>
-  </si>
-  <si>
-    <t>https://www.deutschlandfunk.de/frauen-in-der-architektur-kunsthistorikerin-die-vorbilder.807.de.html?dram:article_id=494521</t>
-  </si>
-  <si>
-    <t>Frauen seien in der Architektur unterrepräsentiert, sagt die Kunsthistorikerin Ursula Schwitalla.
-Und die würden Mut machen.
-Truus Schröder habe in Utrecht Wohnungen für alleinerziehende Frauen geplant, die Care-Rolle der Frauen schläge durch.
-Weltweite VernetzungEs gäbe mittlerweile eine mutmachende Netzverbindung von Architektinnen, die auf Online-Plattformen sichtbar würden, zum Beispiel in Italien "RebelArchitette", die eine Weltkarte mit Architekten schüfen.
-Die Bedeutung von Frauen müsse durch Netzwerke betont werden, Frauen eingeladen werden.</t>
-  </si>
-  <si>
     <t>16. Thuner Literaturfestival</t>
   </si>
   <si>
@@ -243,22 +205,6 @@
 Gewiss sei nur: «Wir ziehen es durch – jetzt erst recht!</t>
   </si>
   <si>
-    <t>Verena Stefan: "Ein Riss im Stoff des Lebens" - Lose Fäden ...</t>
-  </si>
-  <si>
-    <t>Zum Tod von Verena Stefan – Kult-Autorin der Frauenbewegung (Deutschlandfunk Kultur, Kompressor, 01.12.2017). Architektin und Autorin Zora del Buono ...</t>
-  </si>
-  <si>
-    <t>https://www.deutschlandfunkkultur.de/verena-stefan-ein-riss-im-stoff-des-lebens-lose-faeden-neu.950.de.html?dram:article_id=494639</t>
-  </si>
-  <si>
-    <t>Verena Stefan: "Ein Riss im Stoff des Lebens" Lose Fäden, neu verwebtVon Susanne BilligStoisch-sanfte Hartnäckigkeit: "Ein Riss im Stoff des Lebens" ist Verena Stefans letztes Buch.
-Bescheidene Zurückhaltung"Ein Riss im Stoff des Lebens" heißt das letzte Buch von Verena Stefan.
-Immer wieder zitiert sie Gedichte, atmet sie ein und aus.
-Mit Licht meine ich, dass wir uns aufwärts in den riesigen Himmel fallen lassen und im unablässigen Strom des Lichts mitschwimmen."
-Verena Stefan: "Ein Riss im Stoff des Lebens"Aus dem Englischen übersetzt von Anke Caroline BurgerNagel und Kimche, Zürich 2021240 Seiten, 22 Euro</t>
-  </si>
-  <si>
     <t>Kunst - Wie der Maler Rudolf Maeglin den Wandel des Basler Stadtbildes dokumentiert hat</t>
   </si>
   <si>
@@ -335,23 +281,7 @@
 Und das ist vielleicht das Wunderbarste an Maeglins Baustellen: In ihrer positiven und gleichzeitig ruhigen und besonnenen Schönheit führen sie uns die zeitliche Grundbedingung der Architektur vor Augen: Die Zukunft von damals ist die Vergangenheit von heute.</t>
   </si>
   <si>
-    <t>Literatur trifft Politik - Regula Rytz und Gerhard Pfister verraten ihre Lieblingsromane und treten an den Solothurner Literaturtagen auf</t>
-  </si>
-  <si>
-    <t>St. Galler Tagblatt</t>
-  </si>
-  <si>
-    <t>Am Freitag wird sie mit der Schrifstellerin Zora del Buono diskutieren. Anthony Anex / KEYSTONE. Gibt es ein Buch, das Ihr Leben verändert hat? Regula Rytz: ...</t>
-  </si>
-  <si>
-    <t>https://www.tagblatt.ch/kultur/literatur-trifft-politik-regula-rytz-und-gerhard-pfister-verraten-ihre-lieblingsromane-und-treten-an-den-solothurner-literaturtagen-auf-ld.2135455</t>
-  </si>
-  <si>
-    <t>Literatur trifft Politik Regula Rytz und Gerhard Pfister verraten ihre Lieblingsromane und treten an den Solothurner Literaturtagen auf Sie liebt historische Romane, er redet als Romanfigur sogar mit dem Teufel.
-Am Freitag wird sie mit der Schrifstellerin Zora del Buono diskutieren.
-Für mich ist seit damals klar, dass ich mich neben dem Natur- und Klimaschutz immer auch für Menschenwürde und Gerechtigkeit einsetzen werde.
-Gerne würde ich mit ihr darüber reden, wie Wunden verheilen und aus Zerstörung wieder Vertrauen und Stabilität wachsen kann.
-Die lehrten mich, dass der Text eines Autors immer eigene Bedeutungen schafft, die der Autor nicht im Sinne hatte.</t>
+    <t>flag</t>
   </si>
 </sst>
 </file>
@@ -359,7 +289,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="d/m/yy;@"/>
+    <numFmt numFmtId="164" formatCode="d/m/yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -393,7 +323,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -429,6 +359,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -437,7 +378,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -446,10 +387,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -457,6 +398,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -796,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,7 +752,7 @@
     <col min="4" max="4" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="7"/>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -827,8 +772,11 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -850,8 +798,11 @@
       <c r="G2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -867,14 +818,17 @@
       <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -890,14 +844,17 @@
       <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -913,62 +870,71 @@
       <c r="E5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5">
+        <v>44266</v>
+      </c>
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="5">
-        <v>44253</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
       <c r="D7" s="5">
-        <v>44266</v>
+        <v>44261</v>
       </c>
       <c r="E7" t="s">
         <v>32</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>33</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
@@ -977,50 +943,56 @@
         <v>36</v>
       </c>
       <c r="D8" s="5">
-        <v>44261</v>
+        <v>44299.465636574074</v>
       </c>
       <c r="E8" t="s">
         <v>37</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D9" s="5">
         <v>44299.465636574074</v>
       </c>
       <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="8">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>45</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
       </c>
       <c r="D10" s="5">
         <v>44299.465636574074</v>
@@ -1028,16 +1000,19 @@
       <c r="E10" t="s">
         <v>46</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="2" t="s">
         <v>47</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>49</v>
@@ -1051,16 +1026,19 @@
       <c r="E11" t="s">
         <v>51</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="2" t="s">
         <v>52</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>54</v>
@@ -1074,158 +1052,85 @@
       <c r="E12" t="s">
         <v>56</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="D13" s="5">
-        <v>44299.465636574074</v>
+        <v>44299.465980939603</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D14" s="5">
-        <v>44299.465636574074</v>
+        <v>44299.465980962712</v>
       </c>
       <c r="E14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="G14" t="s">
         <v>68</v>
       </c>
-      <c r="C15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="5">
-        <v>44299.465636574074</v>
-      </c>
-      <c r="E15" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="5">
-        <v>44299.465980939603</v>
-      </c>
-      <c r="E16" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="5">
-        <v>44299.465980962712</v>
-      </c>
-      <c r="E17" t="s">
-        <v>80</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="5">
-        <v>44327.46670138889</v>
-      </c>
-      <c r="E18" t="s">
-        <v>85</v>
-      </c>
-      <c r="F18" t="s">
-        <v>86</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>87</v>
+      <c r="H14" s="10">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="F16" r:id="rId2" xr:uid="{11BFD6CF-62E7-4DAC-8195-19BC9CA15116}"/>
-    <hyperlink ref="F17" r:id="rId3" xr:uid="{34164FF9-7FD0-4FE4-AF51-950FFE5E8776}"/>
+    <hyperlink ref="F13" r:id="rId2" xr:uid="{11BFD6CF-62E7-4DAC-8195-19BC9CA15116}"/>
+    <hyperlink ref="F14" r:id="rId3" xr:uid="{34164FF9-7FD0-4FE4-AF51-950FFE5E8776}"/>
+    <hyperlink ref="F3" r:id="rId4" xr:uid="{3C92B119-1A88-4541-BE50-49940F2AA8A0}"/>
+    <hyperlink ref="F4" r:id="rId5" xr:uid="{B427CFBE-E13E-4057-B031-452E8E258C13}"/>
+    <hyperlink ref="F5" r:id="rId6" xr:uid="{0F685E7F-81E3-4C08-BB53-4625CBB893B5}"/>
+    <hyperlink ref="F6" r:id="rId7" xr:uid="{8E0FD30E-79CE-4C10-8B57-9911542596DF}"/>
+    <hyperlink ref="F7" r:id="rId8" xr:uid="{457761EC-F0CB-4693-9B33-1B847B950FF4}"/>
+    <hyperlink ref="F8" r:id="rId9" xr:uid="{7162855E-AE03-46F6-93D3-7DF2A7FBE2C6}"/>
+    <hyperlink ref="F9" r:id="rId10" xr:uid="{92AA00DC-2E0E-4D99-8AA7-256280743D98}"/>
+    <hyperlink ref="F10" r:id="rId11" xr:uid="{2C3A20A1-E902-418D-AAFE-012F8293654D}"/>
+    <hyperlink ref="F11" r:id="rId12" xr:uid="{AFB5D359-6ED9-4FA4-9145-5D3E90E952FC}"/>
+    <hyperlink ref="F12" r:id="rId13" xr:uid="{C402D7A7-B5D2-4A9C-8C99-1E5CF796BC45}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId14"/>
 </worksheet>
 </file>